--- a/biology/Botanique/Rudolf_Goethe/Rudolf_Goethe.xlsx
+++ b/biology/Botanique/Rudolf_Goethe/Rudolf_Goethe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolf Goethe (13 avril 1843-16 janvier 1911) était un expert allemand en viticulture, auteur de plusieurs ouvrages de référence sur la vigne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolf Goethe, fut directeur de l'École d'arboriculture de Brumath-Grafenbourg en 1874. Dans le cadre de ses cinq années à Brumath il a gagné une grande réputation en tant que chercheur et scientifique. Cela a conduit à sa nomination en 1879 comme directeur de l'Académie royale de Prusse pour les vergers et vignobles de Geisenheim, aujourd'hui Forschungsanstalt Geisenheim.
 </t>
@@ -542,9 +556,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Instruction pour les Plantations à faire sur les routes et les chemins, émanant de la Présidence supérieure d'Alsace-Lorraine, Brumath, 1879[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Instruction pour les Plantations à faire sur les routes et les chemins, émanant de la Présidence supérieure d'Alsace-Lorraine, Brumath, 1879
 Weitere Mittheilungen über den Krebs der Apfelbäume. Landwirtschaftliche Jahrbücher 9, 837 - 852. Berlin, Verlag Wiegandt, Hempel &amp; Parey, 1880
 Die Obstverwertung unserer Tage. Wiesbaden, Bechthold Verlag, 1893. (II. Auflage 1897)
 Handbuch der Tafeltraubenkultur. Mit Benutzung des Nachlasses von W. Lauche […] bearbeitet, Berlin, Paul Parey, 1894
